--- a/artfynd/A 61503-2022.xlsx
+++ b/artfynd/A 61503-2022.xlsx
@@ -942,10 +942,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>60493331</v>
+        <v>87015259</v>
       </c>
       <c r="B4" t="n">
-        <v>106964</v>
+        <v>44335</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -958,37 +958,57 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220299</v>
+        <v>102021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Mindre bastardsvärmare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Zygaena viciae</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Denis &amp; Schiffermüller, 1775)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Svalboviken, Sågtorp, Srm</t>
+          <t>Nytorp 2, Eskilstuna, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575959.7454739227</v>
+        <v>575983.1057489648</v>
       </c>
       <c r="R4" t="n">
-        <v>6561005.400135099</v>
+        <v>6561147.345532569</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1012,22 +1032,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2016-07-03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2016-07-03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1039,30 +1059,25 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Skogsbryn mot väg</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Thomas Holmgren</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Thomas Holmgren</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87015259</v>
+        <v>60493331</v>
       </c>
       <c r="B5" t="n">
-        <v>44335</v>
+        <v>106964</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1075,57 +1090,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102021</v>
+        <v>220299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre bastardsvärmare</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Zygaena viciae</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Denis &amp; Schiffermüller, 1775)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Nytorp 2, Eskilstuna, Srm</t>
+          <t>Svalboviken, Sågtorp, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575983.1057489648</v>
+        <v>575959.7454739227</v>
       </c>
       <c r="R5" t="n">
-        <v>6561147.345532569</v>
+        <v>6561005.400135099</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1149,22 +1144,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2016-07-03</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2016-07-03</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1176,15 +1171,20 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Skogsbryn mot väg</t>
+        </is>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Thomas Holmgren</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Thomas Holmgren</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>

--- a/artfynd/A 61503-2022.xlsx
+++ b/artfynd/A 61503-2022.xlsx
@@ -942,10 +942,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87015259</v>
+        <v>60493331</v>
       </c>
       <c r="B4" t="n">
-        <v>44335</v>
+        <v>106964</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -958,57 +958,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102021</v>
+        <v>220299</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre bastardsvärmare</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Zygaena viciae</t>
+          <t>Scorzonera humilis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Denis &amp; Schiffermüller, 1775)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Nytorp 2, Eskilstuna, Srm</t>
+          <t>Svalboviken, Sågtorp, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575983.1057489648</v>
+        <v>575959.7454739227</v>
       </c>
       <c r="R4" t="n">
-        <v>6561147.345532569</v>
+        <v>6561005.400135099</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1032,22 +1012,22 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2016-07-03</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-07-21</t>
+          <t>2016-07-03</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1059,25 +1039,30 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Skogsbryn mot väg</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Thomas Holmgren</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Thomas Holmgren</t>
+          <t>Håkan Gustafson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60493331</v>
+        <v>87015259</v>
       </c>
       <c r="B5" t="n">
-        <v>106964</v>
+        <v>44335</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1090,37 +1075,57 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220299</v>
+        <v>102021</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Mindre bastardsvärmare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Scorzonera humilis</t>
+          <t>Zygaena viciae</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(Denis &amp; Schiffermüller, 1775)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svalboviken, Sågtorp, Srm</t>
+          <t>Nytorp 2, Eskilstuna, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575959.7454739227</v>
+        <v>575983.1057489648</v>
       </c>
       <c r="R5" t="n">
-        <v>6561005.400135099</v>
+        <v>6561147.345532569</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1144,22 +1149,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-07-03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-07-03</t>
+          <t>2020-07-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1171,20 +1176,15 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>Skogsbryn mot väg</t>
-        </is>
-      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Thomas Holmgren</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Håkan Gustafson</t>
+          <t>Thomas Holmgren</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
